--- a/Plant_Species_df.xlsx
+++ b/Plant_Species_df.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Projetos\ArticleReview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{909850FF-5F7B-406B-B17E-217C664F826D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6637527-6FD8-4530-97AD-D64889B924C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant_Species_df" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="139">
   <si>
     <t>Plant</t>
   </si>
@@ -271,21 +271,12 @@
     <t xml:space="preserve"> Monocot</t>
   </si>
   <si>
-    <t>Mallow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virginia</t>
-  </si>
-  <si>
     <t>Mustard plant</t>
   </si>
   <si>
     <t xml:space="preserve"> turnip rapa</t>
   </si>
   <si>
-    <t>Â Hypericum cumulicola</t>
-  </si>
-  <si>
     <t>Agave cactus</t>
   </si>
   <si>
@@ -440,12 +431,18 @@
   </si>
   <si>
     <t>Celery</t>
+  </si>
+  <si>
+    <t>Hypericum cumulicola</t>
+  </si>
+  <si>
+    <t>Mallow Virginia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -923,8 +920,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1279,17 +1279,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.21875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1306,7 +1309,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -1323,7 +1326,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
@@ -1340,7 +1343,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -1357,7 +1360,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
@@ -1374,7 +1377,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
@@ -1391,7 +1394,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7">
@@ -1408,7 +1411,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8">
@@ -1425,7 +1428,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9">
@@ -1442,7 +1445,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10">
@@ -1459,7 +1462,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11">
@@ -1476,7 +1479,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12">
@@ -1493,7 +1496,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13">
@@ -1510,7 +1513,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
@@ -1527,7 +1530,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
@@ -1544,7 +1547,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
@@ -1561,7 +1564,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
@@ -1578,7 +1581,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
@@ -1595,7 +1598,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
@@ -1612,7 +1615,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
@@ -1629,7 +1632,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
@@ -1646,7 +1649,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
@@ -1663,7 +1666,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
@@ -1680,7 +1683,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
@@ -1697,7 +1700,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B25">
@@ -1714,7 +1717,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B26">
@@ -1731,7 +1734,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B27">
@@ -1748,7 +1751,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B28">
@@ -1765,7 +1768,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B29">
@@ -1782,7 +1785,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B30">
@@ -1799,7 +1802,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B31">
@@ -1816,7 +1819,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B32">
@@ -1833,7 +1836,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B33">
@@ -1850,7 +1853,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B34">
@@ -1867,7 +1870,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B35">
@@ -1884,7 +1887,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B36">
@@ -1901,7 +1904,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B37">
@@ -1918,7 +1921,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B38">
@@ -1935,7 +1938,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B39">
@@ -1952,7 +1955,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B40">
@@ -1969,7 +1972,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B41">
@@ -1986,7 +1989,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B42">
@@ -2003,7 +2006,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B43">
@@ -2020,7 +2023,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B44">
@@ -2037,7 +2040,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B45">
@@ -2054,7 +2057,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B46">
@@ -2071,7 +2074,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B47">
@@ -2088,7 +2091,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B48">
@@ -2105,7 +2108,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B49">
@@ -2122,7 +2125,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B50">
@@ -2139,7 +2142,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B51">
@@ -2156,7 +2159,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B52">
@@ -2173,7 +2176,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B53">
@@ -2190,7 +2193,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B54">
@@ -2207,7 +2210,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B55">
@@ -2224,7 +2227,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B56">
@@ -2241,7 +2244,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B57">
@@ -2258,7 +2261,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B58">
@@ -2275,7 +2278,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B59">
@@ -2292,7 +2295,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B60">
@@ -2309,7 +2312,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B61">
@@ -2326,7 +2329,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B62">
@@ -2343,7 +2346,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B63">
@@ -2360,7 +2363,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B64">
@@ -2376,8 +2379,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B65">
@@ -2393,8 +2396,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B66">
@@ -2410,8 +2413,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B67">
@@ -2427,8 +2430,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B68">
@@ -2444,8 +2447,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B69">
@@ -2461,8 +2464,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B70">
@@ -2478,8 +2481,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B71">
@@ -2495,8 +2498,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B72">
@@ -2512,29 +2515,26 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73">
+        <v>4.2</v>
+      </c>
+      <c r="E73">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B73" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73">
-        <v>4.2</v>
-      </c>
-      <c r="F73">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>85</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2549,9 +2549,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>86</v>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2566,9 +2566,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>87</v>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -2583,9 +2583,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>88</v>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2600,9 +2600,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>89</v>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2617,9 +2617,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>90</v>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2634,9 +2634,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>91</v>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -2652,8 +2652,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>92</v>
+      <c r="A81" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2669,8 +2669,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>93</v>
+      <c r="A82" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2686,14 +2686,14 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>94</v>
+      <c r="A83" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D83">
         <v>33.299999999999997</v>
@@ -2703,8 +2703,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>96</v>
+      <c r="A84" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2720,8 +2720,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>97</v>
+      <c r="A85" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2737,8 +2737,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>98</v>
+      <c r="A86" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -2754,14 +2754,14 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>99</v>
+      <c r="A87" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D87">
         <v>33.299999999999997</v>
@@ -2771,8 +2771,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>100</v>
+      <c r="A88" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2788,8 +2788,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>101</v>
+      <c r="A89" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2805,8 +2805,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>102</v>
+      <c r="A90" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2822,8 +2822,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>103</v>
+      <c r="A91" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -2839,8 +2839,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>104</v>
+      <c r="A92" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -2856,14 +2856,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>105</v>
+      <c r="A93" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D93">
         <v>33.299999999999997</v>
@@ -2873,8 +2873,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>106</v>
+      <c r="A94" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -2890,8 +2890,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>107</v>
+      <c r="A95" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -2907,8 +2907,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>108</v>
+      <c r="A96" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2924,8 +2924,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>109</v>
+      <c r="A97" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2941,8 +2941,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>110</v>
+      <c r="A98" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -2958,8 +2958,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>111</v>
+      <c r="A99" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2975,8 +2975,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>112</v>
+      <c r="A100" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -2992,8 +2992,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>113</v>
+      <c r="A101" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -3009,8 +3009,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>114</v>
+      <c r="A102" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3026,8 +3026,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>115</v>
+      <c r="A103" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3043,8 +3043,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>116</v>
+      <c r="A104" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3060,8 +3060,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>117</v>
+      <c r="A105" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -3077,8 +3077,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>118</v>
+      <c r="A106" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3094,8 +3094,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>119</v>
+      <c r="A107" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3111,8 +3111,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>120</v>
+      <c r="A108" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3128,8 +3128,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>121</v>
+      <c r="A109" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3145,8 +3145,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>122</v>
+      <c r="A110" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3162,8 +3162,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>123</v>
+      <c r="A111" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3179,8 +3179,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>124</v>
+      <c r="A112" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3196,8 +3196,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>125</v>
+      <c r="A113" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3213,8 +3213,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>126</v>
+      <c r="A114" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3230,8 +3230,8 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>127</v>
+      <c r="A115" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3247,8 +3247,8 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>128</v>
+      <c r="A116" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3264,8 +3264,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>129</v>
+      <c r="A117" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3281,8 +3281,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>130</v>
+      <c r="A118" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -3298,8 +3298,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>131</v>
+      <c r="A119" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3315,8 +3315,8 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>132</v>
+      <c r="A120" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3332,8 +3332,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>133</v>
+      <c r="A121" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3349,8 +3349,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>134</v>
+      <c r="A122" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3366,8 +3366,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>135</v>
+      <c r="A123" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3383,8 +3383,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>136</v>
+      <c r="A124" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3400,8 +3400,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>137</v>
+      <c r="A125" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3417,8 +3417,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>138</v>
+      <c r="A126" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -3434,8 +3434,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>139</v>
+      <c r="A127" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B127">
         <v>1</v>
